--- a/src/resources/test-data.xlsx
+++ b/src/resources/test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhyettinozer/eclipse-workspace/prepp/src/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8735F765-11DD-EA48-A4ED-C98F9C39EF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD73146-B96F-5A41-958E-ED82DD324DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="5000" windowWidth="28040" windowHeight="17440" xr2:uid="{ACD078E8-2E3D-3448-930D-B183C0AD3D8E}"/>
   </bookViews>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683E28ED-1F73-4845-86B9-0CEDABB10F02}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -518,143 +518,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
